--- a/peer_fund_table_with_notes.xlsx
+++ b/peer_fund_table_with_notes.xlsx
@@ -100,7 +100,7 @@
     <t>物流运输</t>
   </si>
   <si>
-    <t>2023/07/14</t>
+    <t>2023/07/18</t>
   </si>
   <si>
     <t>亿航智能</t>

--- a/peer_fund_table_with_notes.xlsx
+++ b/peer_fund_table_with_notes.xlsx
@@ -100,7 +100,7 @@
     <t>物流运输</t>
   </si>
   <si>
-    <t>2023/07/18</t>
+    <t>2023/07/19</t>
   </si>
   <si>
     <t>亿航智能</t>
